--- a/rai/spx_df.xlsx
+++ b/rai/spx_df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3409"/>
+  <dimension ref="A1:B3422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27710,6 +27710,110 @@
         <v>5569.06</v>
       </c>
     </row>
+    <row r="3410">
+      <c r="A3410" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B3410" t="n">
+        <v>5604.14</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B3411" t="n">
+        <v>5686.67</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B3412" t="n">
+        <v>5686.67</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B3413" t="n">
+        <v>5686.67</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B3414" t="n">
+        <v>5650.38</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B3415" t="n">
+        <v>5606.91</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B3416" t="n">
+        <v>5631.28</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B3417" t="n">
+        <v>5663.94</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B3418" t="n">
+        <v>5659.91</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B3419" t="n">
+        <v>5659.91</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B3420" t="n">
+        <v>5659.91</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B3421" t="n">
+        <v>5844.19</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B3422" t="n">
+        <v>5844.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
